--- a/collection.xlsx
+++ b/collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QFAI_3\Perso\pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302B247E-3C4A-43ED-B069-5F0F90DF5C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFC6287-A1FA-4B74-96E8-9C508E84E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A95A4751-10E8-4214-94CA-8EF20029E8E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A95A4751-10E8-4214-94CA-8EF20029E8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="forces_temporelles" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="flammes_obsidiennes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">forces_temporelles!$A$1:$D$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">forces_temporelles!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16713D9A-CB3E-4FD1-8CAB-C03F00BEE774}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +479,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -521,13 +521,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -535,13 +535,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -549,21 +549,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -614,15 +614,15 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -642,12 +642,12 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -661,21 +661,21 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -689,21 +689,21 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -745,27 +745,27 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -773,27 +773,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -824,18 +824,18 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -866,12 +866,12 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -899,27 +899,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -941,24 +941,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -969,24 +969,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1025,27 +1025,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1109,13 +1109,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1123,27 +1123,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1221,27 +1221,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1277,41 +1277,41 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1319,27 +1319,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1389,21 +1389,21 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -1459,13 +1459,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1473,27 +1473,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -1510,18 +1510,18 @@
         <v>11</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1529,27 +1529,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1557,13 +1557,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1613,13 +1613,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1664,41 +1664,181 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
+        <v>144</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>145</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>146</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>148</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>149</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>150</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>156</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>161</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>172</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>186</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
         <v>8</v>
       </c>
-      <c r="D88">
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D88" xr:uid="{16713D9A-CB3E-4FD1-8CAB-C03F00BEE774}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
-    <sortCondition ref="A2:A88"/>
+  <autoFilter ref="A1:D97" xr:uid="{16713D9A-CB3E-4FD1-8CAB-C03F00BEE774}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D97">
+    <sortCondition ref="A3:A97"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2270,7 +2410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016CEA55-FACF-464F-BF5F-C3E8BF81A73D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QFAI_3\Perso\pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFC6287-A1FA-4B74-96E8-9C508E84E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0FE3B8-F456-498D-8E31-0F59DA32ADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A95A4751-10E8-4214-94CA-8EF20029E8E6}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="flammes_obsidiennes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">forces_temporelles!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">forces_temporelles!$A$1:$D$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16713D9A-CB3E-4FD1-8CAB-C03F00BEE774}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -535,13 +535,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -549,41 +549,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -605,13 +605,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -622,32 +622,32 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -656,12 +656,12 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -689,21 +689,21 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -731,21 +731,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -754,18 +754,18 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -782,32 +782,32 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -815,21 +815,21 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -857,27 +857,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -913,21 +913,21 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -941,21 +941,21 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -997,24 +997,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1025,24 +1025,24 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1109,21 +1109,21 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1165,13 +1165,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1179,13 +1179,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1202,12 +1202,12 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1244,18 +1244,18 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1277,21 +1277,21 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -1300,18 +1300,18 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -1342,15 +1342,15 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1389,21 +1389,21 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1426,32 +1426,32 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1459,13 +1459,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1482,43 +1482,43 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -1529,13 +1529,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1557,21 +1557,21 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -1599,27 +1599,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1627,13 +1627,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -1641,13 +1641,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -1669,41 +1669,41 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1711,13 +1711,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -1753,13 +1753,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1781,13 +1781,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -1795,13 +1795,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -1809,36 +1809,302 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
+        <v>139</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>140</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>140</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>143</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>144</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>144</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>145</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>146</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>147</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>148</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>149</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>150</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>155</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>156</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>160</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>161</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>172</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>186</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>201</v>
       </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
         <v>8</v>
       </c>
-      <c r="D98">
+      <c r="D117">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D97" xr:uid="{16713D9A-CB3E-4FD1-8CAB-C03F00BEE774}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D97">
-    <sortCondition ref="A3:A97"/>
+  <autoFilter ref="A1:D116" xr:uid="{16713D9A-CB3E-4FD1-8CAB-C03F00BEE774}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D116">
+    <sortCondition ref="A3:A116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
